--- a/Document/요구사항정의서.xlsx
+++ b/Document/요구사항정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\week13_pm\TEAM05-JOOONY-S\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29AE35-820C-4F6F-95C6-7B9FC4BE126B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3A895F-F131-47B6-8E09-90307BDFF6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="540" windowWidth="13860" windowHeight="11260" xr2:uid="{0AED461B-D2A8-45A8-A508-F6266256E0DE}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="17060" windowHeight="11260" xr2:uid="{0AED461B-D2A8-45A8-A508-F6266256E0DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>이재상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>허채범</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신민수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -379,6 +391,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,22 +415,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +735,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -734,14 +746,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -764,7 +776,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -776,12 +788,16 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -790,24 +806,32 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -816,26 +840,34 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -844,28 +876,32 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -874,23 +910,31 @@
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -902,12 +946,16 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -916,26 +964,34 @@
       <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -944,24 +1000,32 @@
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -970,12 +1034,16 @@
       <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -984,46 +1052,58 @@
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
